--- a/biology/Histoire de la zoologie et de la botanique/Adam_White_(zoologiste)/Adam_White_(zoologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adam_White_(zoologiste)/Adam_White_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adam White est un  zoologiste écossais, né le 29 avril 1817 à Édimbourg et mort le 30 décembre 1878 à Glasgow[1],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adam White est un  zoologiste écossais, né le 29 avril 1817 à Édimbourg et mort le 30 décembre 1878 à Glasgow,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Enfant, il est sensibilisé à l’histoire naturelle par le grand zoologiste John Edward Gray (1800 - 1875), dirigeant le département de zoologie du British Museum. À l’âge de dix-huit ans, White y obtient un poste d’assistant, fonction qu’il occupe jusqu’en 1863.
 White travaille plus spécialement dans le domaine de l’entomologie. Il est l’auteur d’environ 60 publications sur les insectes ainsi que sur les crustacés. Parmi ceux-ci, il faut citer la List of the Specimens of Crustacea in the Collection of the British Museum de 1847, A Popular History of Mammalia de 1850 et Tabular View of the Orders and Leading Families of Insects de 1857. On lui doit notamment la description de plusieurs taxons importants comme le genre de langoustes Panulirus.
